--- a/filer/DTU_Opgave_1.xlsx
+++ b/filer/DTU_Opgave_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="Denne_projektmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tue Hellstern\Dropbox\DTU\2021_2\opgaver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuehe\Documents\GitHub\dtu\filer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D5823E-600F-405A-8596-10D231B97C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C1073-35B0-44C0-8779-D26E77B206FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales data 2019" sheetId="12" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="120">
   <si>
     <t>Navn</t>
   </si>
@@ -495,7 +495,7 @@
     <numFmt numFmtId="171" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -677,6 +677,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -945,7 +952,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1130,6 +1137,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,10 +1164,11 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1608,14 +1622,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7920</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>262800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:colOff>19106</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4172,13 +4186,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
@@ -9841,82 +9855,156 @@
   <sheetPr codeName="Ark2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:AMK7"/>
+  <dimension ref="A2:AML9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="9" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
+    <col min="6" max="1026" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="68"/>
+      <c r="E3" s="6" t="str">
+        <f>IF(VALUE(C3)&gt;=2,"Bestået","Dumpet")</f>
+        <v>Dumpet</v>
+      </c>
+      <c r="G3" s="102" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E3)</f>
+        <v>=IF(VALUE(C3)&gt;=2;"Bestået";"Dumpet")</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="str">
+        <f t="shared" ref="E4:E9" si="0">IF(VALUE(C4)&gt;=2,"Bestået","Dumpet")</f>
+        <v>Bestået</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="68" t="str">
+        <f>TEXT(C5,"0")</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bestået</v>
+      </c>
+      <c r="G5" s="102" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D5)</f>
+        <v>=TEXT(C5;"0")</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>RIGHT(C6,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Bestået</v>
+      </c>
+      <c r="G6" s="102" t="str">
+        <f t="shared" ref="G6:G7" ca="1" si="1">_xlfn.FORMULATEXT(D6)</f>
+        <v>=RIGHT(C6;1)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="103">
+        <f>VALUE(C7)</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bestået</v>
+      </c>
+      <c r="G7" s="102" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=VALUE(C7)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Bestået</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C9" s="11">
         <v>-3</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Dumpet</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C3 C5" numberStoredAsText="1"/>
+    <ignoredError sqref="C3 C5:C7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9937,12 +10025,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
@@ -10059,7 +10147,7 @@
       <c r="B3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="100">
+      <c r="C3" s="93">
         <v>4</v>
       </c>
     </row>
@@ -10067,7 +10155,7 @@
       <c r="B4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="92">
         <v>7</v>
       </c>
     </row>
@@ -10075,7 +10163,7 @@
       <c r="B5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="93">
         <v>7</v>
       </c>
     </row>
@@ -10083,18 +10171,18 @@
       <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="92" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C7" s="100"/>
+      <c r="C7" s="93"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="92" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10129,12 +10217,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="38" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -11308,12 +11396,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="46" t="s">
